--- a/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_A.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_A.xlsx
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.17872674084617</v>
+        <v>4.178726740846175</v>
       </c>
       <c r="C4" t="n">
         <v>14.73787001060802</v>
@@ -2221,7 +2221,7 @@
         <v>0.9081596673998292</v>
       </c>
       <c r="E4" t="n">
-        <v>4.601312842718912</v>
+        <v>4.60131284271892</v>
       </c>
       <c r="F4" t="n">
         <v>13.3843391270157</v>
@@ -2230,10 +2230,10 @@
         <v>0.7195724567840889</v>
       </c>
       <c r="H4" t="n">
-        <v>286.9380565920444</v>
+        <v>286.9380565920445</v>
       </c>
       <c r="I4" t="n">
-        <v>157.5662935869172</v>
+        <v>157.5662935869173</v>
       </c>
       <c r="J4" t="n">
         <v>37.29547082661482</v>
@@ -2245,13 +2245,13 @@
         <v>27.196280916188</v>
       </c>
       <c r="M4" t="n">
-        <v>61.58553151644256</v>
+        <v>61.58553151644267</v>
       </c>
       <c r="N4" t="n">
-        <v>7.340126938259426</v>
+        <v>7.340126938259428</v>
       </c>
       <c r="O4" t="n">
-        <v>-7.636845111846924e-08</v>
+        <v>5.345791578292847e-07</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>44.88122472861823</v>
+        <v>44.88122472861822</v>
       </c>
       <c r="BD4" t="n">
         <v>81.43395529810422</v>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.178635008463443</v>
+        <v>4.178635008463444</v>
       </c>
       <c r="C5" t="n">
         <v>14.73881224549138</v>
@@ -3047,7 +3047,7 @@
         <v>0.9081596699994197</v>
       </c>
       <c r="E5" t="n">
-        <v>4.601211820456767</v>
+        <v>4.601211820456768</v>
       </c>
       <c r="F5" t="n">
         <v>13.38519486504886</v>
@@ -3056,7 +3056,7 @@
         <v>0.7195723786823054</v>
       </c>
       <c r="H5" t="n">
-        <v>286.9483756200951</v>
+        <v>286.9483756200952</v>
       </c>
       <c r="I5" t="n">
         <v>157.5719818948517</v>
@@ -3071,13 +3071,13 @@
         <v>27.19762604316475</v>
       </c>
       <c r="M5" t="n">
-        <v>61.58811683218002</v>
+        <v>61.58811683218004</v>
       </c>
       <c r="N5" t="n">
         <v>7.340273555322693</v>
       </c>
       <c r="O5" t="n">
-        <v>4.358589649200439e-07</v>
+        <v>4.144385457038879e-07</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>44.88392840790952</v>
       </c>
       <c r="BD5" t="n">
-        <v>81.43918917962893</v>
+        <v>81.43918917962894</v>
       </c>
       <c r="BE5" t="n">
         <v>247.0299309991287</v>

--- a/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_A.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_A.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JN5"/>
+  <dimension ref="A1:JR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,6 +836,10 @@
       <c r="JL1" s="1" t="n"/>
       <c r="JM1" s="1" t="n"/>
       <c r="JN1" s="1" t="n"/>
+      <c r="JO1" s="1" t="n"/>
+      <c r="JP1" s="1" t="n"/>
+      <c r="JQ1" s="1" t="n"/>
+      <c r="JR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -1996,210 +2000,230 @@
       </c>
       <c r="HY2" s="1" t="inlineStr">
         <is>
+          <t>GWP100a - materials breakdown - na OH [kg-CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="HZ2" s="1" t="inlineStr">
+        <is>
           <t>GWP100a - materials breakdown - acetate [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="HZ2" s="1" t="inlineStr">
+      <c r="IA2" s="1" t="inlineStr">
         <is>
           <t>GWP100a - Materials breakdown - CH4 [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IA2" s="1" t="inlineStr">
+      <c r="IB2" s="1" t="inlineStr">
         <is>
           <t>GWP100a - other materials [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IB2" s="1" t="inlineStr">
+      <c r="IC2" s="1" t="inlineStr">
         <is>
           <t>GWP100a - Other materials breakdown - H2SO4 [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IC2" s="1" t="inlineStr">
+      <c r="ID2" s="1" t="inlineStr">
         <is>
           <t>GWP100a - Other materials breakdown - H3PO4 [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="ID2" s="1" t="inlineStr">
+      <c r="IE2" s="1" t="inlineStr">
         <is>
           <t>GWP100a - other materials breakdown - ca O [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IE2" s="1" t="inlineStr">
+      <c r="IF2" s="1" t="inlineStr">
         <is>
           <t>Total FEC [MJ/kg]</t>
         </is>
       </c>
-      <c r="IF2" s="1" t="inlineStr">
+      <c r="IG2" s="1" t="inlineStr">
         <is>
           <t>Total FEC excl. net electricity [MJ/kg]</t>
         </is>
       </c>
-      <c r="IG2" s="1" t="inlineStr">
+      <c r="IH2" s="1" t="inlineStr">
         <is>
           <t>FEC - net electricity [MJ/kg]</t>
         </is>
       </c>
-      <c r="IH2" s="1" t="inlineStr">
+      <c r="II2" s="1" t="inlineStr">
         <is>
           <t>FEC - Feedstock (FGHTP) [MJ/kg]</t>
         </is>
       </c>
-      <c r="II2" s="1" t="inlineStr">
+      <c r="IJ2" s="1" t="inlineStr">
         <is>
           <t>FEC - Materials (except feedstock and BT.natural gas) [MJ/kg]</t>
         </is>
       </c>
-      <c r="IJ2" s="1" t="inlineStr">
+      <c r="IK2" s="1" t="inlineStr">
         <is>
           <t>FEC - materials breakdown - CSL [MJ/kg]</t>
         </is>
       </c>
-      <c r="IK2" s="1" t="inlineStr">
+      <c r="IL2" s="1" t="inlineStr">
         <is>
           <t>FEC - materials breakdown - DAP [MJ/kg]</t>
         </is>
       </c>
-      <c r="IL2" s="1" t="inlineStr">
+      <c r="IM2" s="1" t="inlineStr">
+        <is>
+          <t>FEC - materials breakdown - na OH [MJ/kg]</t>
+        </is>
+      </c>
+      <c r="IN2" s="1" t="inlineStr">
         <is>
           <t>FEC - materials breakdown - acetate [MJ/kg]</t>
         </is>
       </c>
-      <c r="IM2" s="1" t="inlineStr">
+      <c r="IO2" s="1" t="inlineStr">
         <is>
           <t>FEC - Materials breakdown - CH4 [MJ/kg]</t>
         </is>
       </c>
-      <c r="IN2" s="1" t="inlineStr">
+      <c r="IP2" s="1" t="inlineStr">
         <is>
           <t>FEC - other materials [MJ/kg]</t>
         </is>
       </c>
-      <c r="IO2" s="1" t="inlineStr">
+      <c r="IQ2" s="1" t="inlineStr">
         <is>
           <t>FEC - Other materials breakdown - H2SO4 [MJ/kg]</t>
         </is>
       </c>
-      <c r="IP2" s="1" t="inlineStr">
+      <c r="IR2" s="1" t="inlineStr">
         <is>
           <t>FEC - Other materials breakdown - H3PO4 [MJ/kg]</t>
         </is>
       </c>
-      <c r="IQ2" s="1" t="inlineStr">
+      <c r="IS2" s="1" t="inlineStr">
         <is>
           <t>FEC - other materials breakdown - ca O [MJ/kg]</t>
         </is>
       </c>
-      <c r="IR2" s="1" t="inlineStr">
+      <c r="IT2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - net electricity [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IS2" s="1" t="inlineStr">
+      <c r="IU2" s="1" t="inlineStr">
         <is>
           <t>GWP100a %- direct non-biogenic emissions [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IT2" s="1" t="inlineStr">
+      <c r="IV2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - Feedstock (FGHTP) [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IU2" s="1" t="inlineStr">
+      <c r="IW2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - Materials (except feedstock and BT.natural gas) [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IV2" s="1" t="inlineStr">
+      <c r="IX2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - materials breakdown - CSL [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IW2" s="1" t="inlineStr">
+      <c r="IY2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - materials breakdown - DAP [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IX2" s="1" t="inlineStr">
+      <c r="IZ2" s="1" t="inlineStr">
+        <is>
+          <t>GWP100a % - materials breakdown - na OH [kg-CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="JA2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - materials breakdown - acetate [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IY2" s="1" t="inlineStr">
+      <c r="JB2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - Materials breakdown - CH4 [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="IZ2" s="1" t="inlineStr">
+      <c r="JC2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - other materials [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="JA2" s="1" t="inlineStr">
+      <c r="JD2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - Other materials breakdown - H2SO4 [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="JB2" s="1" t="inlineStr">
+      <c r="JE2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - Other materials breakdown - H3PO4 [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="JC2" s="1" t="inlineStr">
+      <c r="JF2" s="1" t="inlineStr">
         <is>
           <t>GWP100a % - other materials breakdown - ca O [kg-CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="JD2" s="1" t="inlineStr">
+      <c r="JG2" s="1" t="inlineStr">
         <is>
           <t>FEC % - net electricity [MJ/kg]</t>
         </is>
       </c>
-      <c r="JE2" s="1" t="inlineStr">
+      <c r="JH2" s="1" t="inlineStr">
         <is>
           <t>FEC % - Feedstock (FGHTP) [MJ/kg]</t>
         </is>
       </c>
-      <c r="JF2" s="1" t="inlineStr">
+      <c r="JI2" s="1" t="inlineStr">
         <is>
           <t>FEC % - Materials (except feedstock and BT.natural gas) [MJ/kg]</t>
         </is>
       </c>
-      <c r="JG2" s="1" t="inlineStr">
+      <c r="JJ2" s="1" t="inlineStr">
         <is>
           <t>FEC % - materials breakdown - CSL [MJ/kg]</t>
         </is>
       </c>
-      <c r="JH2" s="1" t="inlineStr">
+      <c r="JK2" s="1" t="inlineStr">
         <is>
           <t>FEC % - materials breakdown - DAP [MJ/kg]</t>
         </is>
       </c>
-      <c r="JI2" s="1" t="inlineStr">
+      <c r="JL2" s="1" t="inlineStr">
+        <is>
+          <t>FEC % - materials breakdown - na OH [MJ/kg]</t>
+        </is>
+      </c>
+      <c r="JM2" s="1" t="inlineStr">
         <is>
           <t>FEC % - materials breakdown - acetate [MJ/kg]</t>
         </is>
       </c>
-      <c r="JJ2" s="1" t="inlineStr">
+      <c r="JN2" s="1" t="inlineStr">
         <is>
           <t>FEC % - Materials breakdown - CH4 [MJ/kg]</t>
         </is>
       </c>
-      <c r="JK2" s="1" t="inlineStr">
+      <c r="JO2" s="1" t="inlineStr">
         <is>
           <t>FEC % - other materials [MJ/kg]</t>
         </is>
       </c>
-      <c r="JL2" s="1" t="inlineStr">
+      <c r="JP2" s="1" t="inlineStr">
         <is>
           <t>FEC % - Other materials breakdown - H2SO4 [MJ/kg]</t>
         </is>
       </c>
-      <c r="JM2" s="1" t="inlineStr">
+      <c r="JQ2" s="1" t="inlineStr">
         <is>
           <t>FEC % - Other materials breakdown - H3PO4 [MJ/kg]</t>
         </is>
       </c>
-      <c r="JN2" s="1" t="inlineStr">
+      <c r="JR2" s="1" t="inlineStr">
         <is>
           <t>FEC % - other materials breakdown - ca O [MJ/kg]</t>
         </is>
@@ -2212,7 +2236,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.178726740846175</v>
+        <v>4.178726740846171</v>
       </c>
       <c r="C4" t="n">
         <v>14.73787001060802</v>
@@ -2221,7 +2245,7 @@
         <v>0.9081596673998292</v>
       </c>
       <c r="E4" t="n">
-        <v>4.60131284271892</v>
+        <v>4.601312842718913</v>
       </c>
       <c r="F4" t="n">
         <v>13.3843391270157</v>
@@ -2233,7 +2257,7 @@
         <v>286.9380565920445</v>
       </c>
       <c r="I4" t="n">
-        <v>157.5662935869173</v>
+        <v>157.5662935869172</v>
       </c>
       <c r="J4" t="n">
         <v>37.29547082661482</v>
@@ -2245,13 +2269,13 @@
         <v>27.196280916188</v>
       </c>
       <c r="M4" t="n">
-        <v>61.58553151644267</v>
+        <v>61.58553151644257</v>
       </c>
       <c r="N4" t="n">
-        <v>7.340126938259428</v>
+        <v>7.340126938259427</v>
       </c>
       <c r="O4" t="n">
-        <v>5.345791578292847e-07</v>
+        <v>-3.539025783538818e-08</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2791,22 +2815,22 @@
         <v>0</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.4777419305915672</v>
+        <v>0.4777419305915673</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.0004750593749251109</v>
+        <v>0.000475059374925111</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.06252618075760603</v>
+        <v>0.06252618075760605</v>
       </c>
       <c r="GP4" t="n">
         <v>0.1100443454782698</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.07271905233667181</v>
+        <v>0.07271905233667182</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.09614320757650566</v>
+        <v>0.09614320757650568</v>
       </c>
       <c r="GS4" t="n">
         <v>0</v>
@@ -2815,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="GU4" t="n">
-        <v>1.399367991811593e-05</v>
+        <v>1.399367991811594e-05</v>
       </c>
       <c r="GV4" t="n">
         <v>1.410823408881025e-05</v>
@@ -2824,7 +2848,7 @@
         <v>1.274060120838761e-06</v>
       </c>
       <c r="GX4" t="n">
-        <v>4.646100322634732e-79</v>
+        <v>4.646100322634733e-79</v>
       </c>
       <c r="GY4" t="n">
         <v>0</v>
@@ -2905,129 +2929,141 @@
         <v>0.5793463707431511</v>
       </c>
       <c r="HY4" t="n">
+        <v>0.866625698685446</v>
+      </c>
+      <c r="HZ4" t="n">
         <v>0.5908387586546965</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="IA4" t="n">
         <v>0.0250193210653951</v>
       </c>
-      <c r="IA4" t="n">
-        <v>0.8745627185210924</v>
-      </c>
       <c r="IB4" t="n">
-        <v>0</v>
+        <v>0.007937019835645948</v>
       </c>
       <c r="IC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID4" t="n">
         <v>0.006757469240722912</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="IE4" t="n">
         <v>0.001179550594924247</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IF4" t="n">
         <v>-17.22185527636661</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IG4" t="n">
         <v>90.53011287844339</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IH4" t="n">
         <v>-107.75196815481</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="II4" t="n">
         <v>17.3191778205091</v>
       </c>
-      <c r="II4" t="n">
+      <c r="IJ4" t="n">
         <v>73.21093505793429</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IK4" t="n">
         <v>33.64530741227964</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IL4" t="n">
         <v>7.80349874937638</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IM4" t="n">
+        <v>11.91096931842556</v>
+      </c>
+      <c r="IN4" t="n">
         <v>16.63708273922667</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IO4" t="n">
         <v>3.127415133174388</v>
       </c>
-      <c r="IN4" t="n">
-        <v>11.99763102387721</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>0</v>
-      </c>
       <c r="IP4" t="n">
+        <v>0.08666170545164764</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR4" t="n">
         <v>0.08218489947277212</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IS4" t="n">
         <v>0.00447680597887528</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IT4" t="n">
         <v>-0.6140707023492012</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IU4" t="n">
         <v>0.1241758495780806</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IV4" t="n">
         <v>0.4097177781378751</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IW4" t="n">
         <v>0.4661063722840443</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IX4" t="n">
         <v>0.315734037205046</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IY4" t="n">
         <v>0.04209056356369814</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IZ4" t="n">
+        <v>0.06296192726583211</v>
+      </c>
+      <c r="JA4" t="n">
         <v>0.04292550636875807</v>
       </c>
-      <c r="IY4" t="n">
+      <c r="JB4" t="n">
         <v>0.001817699008406248</v>
       </c>
-      <c r="IZ4" t="n">
-        <v>0.06353856613813585</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB4" t="n">
+      <c r="JC4" t="n">
+        <v>0.000576638872303729</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" t="n">
         <v>0.0004909423843313947</v>
       </c>
-      <c r="JC4" t="n">
+      <c r="JF4" t="n">
         <v>8.569648797242232e-05</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JG4" t="n">
         <v>-1.190233445301131</v>
       </c>
-      <c r="JE4" t="n">
+      <c r="JH4" t="n">
         <v>0.191308474824989</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JI4" t="n">
         <v>0.8086915251750111</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JJ4" t="n">
         <v>0.3716476909451762</v>
       </c>
-      <c r="JH4" t="n">
+      <c r="JK4" t="n">
         <v>0.08619782414117053</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JL4" t="n">
+        <v>0.1315691424622287</v>
+      </c>
+      <c r="JM4" t="n">
         <v>0.1837740196078803</v>
       </c>
-      <c r="JJ4" t="n">
+      <c r="JN4" t="n">
         <v>0.03454557863385889</v>
       </c>
-      <c r="JK4" t="n">
-        <v>0.1325264118469252</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM4" t="n">
+      <c r="JO4" t="n">
+        <v>0.0009572693846964497</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ4" t="n">
         <v>0.0009078183695973454</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JR4" t="n">
         <v>4.945101509910164e-05</v>
       </c>
     </row>
@@ -3038,7 +3074,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.178635008463444</v>
+        <v>4.17863500846344</v>
       </c>
       <c r="C5" t="n">
         <v>14.73881224549138</v>
@@ -3047,7 +3083,7 @@
         <v>0.9081596699994197</v>
       </c>
       <c r="E5" t="n">
-        <v>4.601211820456768</v>
+        <v>4.60121182045676</v>
       </c>
       <c r="F5" t="n">
         <v>13.38519486504886</v>
@@ -3056,10 +3092,10 @@
         <v>0.7195723786823054</v>
       </c>
       <c r="H5" t="n">
-        <v>286.9483756200952</v>
+        <v>286.948375620095</v>
       </c>
       <c r="I5" t="n">
-        <v>157.5719818948517</v>
+        <v>157.5719818948516</v>
       </c>
       <c r="J5" t="n">
         <v>37.29776222220768</v>
@@ -3068,16 +3104,16 @@
         <v>17.63793707333778</v>
       </c>
       <c r="L5" t="n">
-        <v>27.19762604316475</v>
+        <v>27.19762604316474</v>
       </c>
       <c r="M5" t="n">
-        <v>61.58811683218004</v>
+        <v>61.58811683217993</v>
       </c>
       <c r="N5" t="n">
-        <v>7.340273555322693</v>
+        <v>7.340273555322688</v>
       </c>
       <c r="O5" t="n">
-        <v>4.144385457038879e-07</v>
+        <v>-1.201406121253967e-07</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3152,7 +3188,7 @@
         <v>42.24866327640233</v>
       </c>
       <c r="AN5" t="n">
-        <v>1699.137397065438</v>
+        <v>1699.137397065437</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3197,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>44.88392840790952</v>
+        <v>44.88392840790951</v>
       </c>
       <c r="BD5" t="n">
         <v>81.43918917962894</v>
@@ -3227,7 +3263,7 @@
         <v>1.001877542234524</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.705206376039745</v>
+        <v>1.705206376039744</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -3335,16 +3371,16 @@
         <v>157.5719818948516</v>
       </c>
       <c r="CW5" t="n">
-        <v>27.16131329429848</v>
+        <v>27.16131329429847</v>
       </c>
       <c r="CX5" t="n">
-        <v>44.79925036763626</v>
+        <v>44.79925036763625</v>
       </c>
       <c r="CY5" t="n">
         <v>373.3530485866671</v>
       </c>
       <c r="CZ5" t="n">
-        <v>11.59947174965761</v>
+        <v>11.5994717496576</v>
       </c>
       <c r="DA5" t="n">
         <v>150.169960518542</v>
@@ -3380,7 +3416,7 @@
         <v>0.0740588980752339</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.03445513528671679</v>
+        <v>0.0344551352867168</v>
       </c>
       <c r="DM5" t="n">
         <v>0.4694092726539855</v>
@@ -3407,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.4781309825894642</v>
+        <v>0.4781309825894643</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
@@ -3434,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.004074046414979957</v>
+        <v>0.004074046414979958</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.163848133508623</v>
+        <v>0.1638481335086229</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
@@ -3446,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.3937105404352866</v>
+        <v>-0.3937105404352867</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
@@ -3494,25 +3530,25 @@
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.09408686100374504</v>
+        <v>0.09408686100374505</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.5303725862414447</v>
+        <v>0.5303725862414448</v>
       </c>
       <c r="EZ5" t="n">
         <v>0.07082833462192517</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.04679301214628859</v>
+        <v>0.0467930121462886</v>
       </c>
       <c r="FB5" t="n">
         <v>0.02453927483980268</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.08637268695137751</v>
+        <v>0.08637268695137752</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.147007244195416</v>
+        <v>0.1470072441954159</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
@@ -3617,22 +3653,22 @@
         <v>0</v>
       </c>
       <c r="GM5" t="n">
-        <v>0.4777437397605777</v>
+        <v>0.4777437397605778</v>
       </c>
       <c r="GN5" t="n">
-        <v>0.0004750611739355043</v>
+        <v>0.0004750611739355045</v>
       </c>
       <c r="GO5" t="n">
-        <v>0.06252691413689339</v>
+        <v>0.06252691413689342</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.1100456362054929</v>
+        <v>0.110045636205493</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.07271990526973336</v>
+        <v>0.07271990526973339</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.09614409174858105</v>
+        <v>0.09614409174858109</v>
       </c>
       <c r="GS5" t="n">
         <v>0</v>
@@ -3641,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="GU5" t="n">
-        <v>1.399379260381177e-05</v>
+        <v>1.399379260381178e-05</v>
       </c>
       <c r="GV5" t="n">
         <v>1.410834769696655e-05</v>
@@ -3656,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="GZ5" t="n">
-        <v>0.0001624218455870988</v>
+        <v>0.0001624218455870989</v>
       </c>
       <c r="HA5" t="n">
         <v>0</v>
@@ -3731,129 +3767,141 @@
         <v>0.5793477977324534</v>
       </c>
       <c r="HY5" t="n">
+        <v>0.8666256383486904</v>
+      </c>
+      <c r="HZ5" t="n">
         <v>0.5908402139509241</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="IA5" t="n">
         <v>0.02501932099342339</v>
       </c>
-      <c r="IA5" t="n">
-        <v>0.8745626146969097</v>
-      </c>
       <c r="IB5" t="n">
-        <v>0</v>
+        <v>0.007936976348219344</v>
       </c>
       <c r="IC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID5" t="n">
         <v>0.006757432216125601</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="IE5" t="n">
         <v>0.001179544132092641</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IF5" t="n">
         <v>-17.22167548002605</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IG5" t="n">
         <v>90.53015974396776</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IH5" t="n">
         <v>-107.7518352239938</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="II5" t="n">
         <v>17.31908292764886</v>
       </c>
-      <c r="II5" t="n">
+      <c r="IJ5" t="n">
         <v>73.21107681631889</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IK5" t="n">
         <v>33.6453902841093</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IL5" t="n">
         <v>7.803517970191075</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IM5" t="n">
+        <v>11.91096848915262</v>
+      </c>
+      <c r="IN5" t="n">
         <v>16.63712371806124</v>
       </c>
-      <c r="IM5" t="n">
+      <c r="IO5" t="n">
         <v>3.127415124177924</v>
       </c>
-      <c r="IN5" t="n">
-        <v>11.99762971977935</v>
-      </c>
-      <c r="IO5" t="n">
-        <v>0</v>
-      </c>
       <c r="IP5" t="n">
+        <v>0.08666123062672249</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR5" t="n">
         <v>0.0821844491765592</v>
       </c>
-      <c r="IQ5" t="n">
+      <c r="IS5" t="n">
         <v>0.004476781450174859</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IT5" t="n">
         <v>-0.6140664101614886</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IU5" t="n">
         <v>0.1241821561979175</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IV5" t="n">
         <v>0.4097131749205602</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IW5" t="n">
         <v>0.4661046688815223</v>
       </c>
-      <c r="IV5" t="n">
+      <c r="IX5" t="n">
         <v>0.3157329975011217</v>
       </c>
-      <c r="IW5" t="n">
+      <c r="IY5" t="n">
         <v>0.04209042496057349</v>
       </c>
-      <c r="IX5" t="n">
+      <c r="IZ5" t="n">
+        <v>0.06296156046953649</v>
+      </c>
+      <c r="JA5" t="n">
         <v>0.04292536501618859</v>
       </c>
-      <c r="IY5" t="n">
+      <c r="JB5" t="n">
         <v>0.001817688540389524</v>
       </c>
-      <c r="IZ5" t="n">
-        <v>0.06353819286324905</v>
-      </c>
-      <c r="JA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB5" t="n">
+      <c r="JC5" t="n">
+        <v>0.0005766323937125744</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE5" t="n">
         <v>0.0004909368685480788</v>
       </c>
-      <c r="JC5" t="n">
+      <c r="JF5" t="n">
         <v>8.569552516441536e-05</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JG5" t="n">
         <v>-1.190231360783317</v>
       </c>
-      <c r="JE5" t="n">
+      <c r="JH5" t="n">
         <v>0.1913073275981144</v>
       </c>
-      <c r="JF5" t="n">
+      <c r="JI5" t="n">
         <v>0.8086926724018857</v>
       </c>
-      <c r="JG5" t="n">
+      <c r="JJ5" t="n">
         <v>0.3716484139568877</v>
       </c>
-      <c r="JH5" t="n">
+      <c r="JK5" t="n">
         <v>0.08619799183234118</v>
       </c>
-      <c r="JI5" t="n">
+      <c r="JL5" t="n">
+        <v>0.1315690651915178</v>
+      </c>
+      <c r="JM5" t="n">
         <v>0.183774377125959</v>
       </c>
-      <c r="JJ5" t="n">
+      <c r="JN5" t="n">
         <v>0.03454556065097754</v>
       </c>
-      <c r="JK5" t="n">
-        <v>0.1325263288357202</v>
-      </c>
-      <c r="JL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM5" t="n">
+      <c r="JO5" t="n">
+        <v>0.0009572636442022509</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ5" t="n">
         <v>0.0009078129256480777</v>
       </c>
-      <c r="JN5" t="n">
+      <c r="JR5" t="n">
         <v>4.945071855430099e-05</v>
       </c>
     </row>
@@ -3870,11 +3918,11 @@
     <mergeCell ref="FK1:FX1"/>
     <mergeCell ref="CH1:CU1"/>
     <mergeCell ref="GM1:HA1"/>
+    <mergeCell ref="HQ1:JR1"/>
     <mergeCell ref="DU1:EH1"/>
     <mergeCell ref="FY1:GL1"/>
     <mergeCell ref="EI1:EV1"/>
     <mergeCell ref="B1:N1"/>
-    <mergeCell ref="HQ1:JN1"/>
     <mergeCell ref="DC1:DD1"/>
     <mergeCell ref="BT1:CG1"/>
     <mergeCell ref="AR1:BE1"/>
